--- a/Infraestructura/Municipios ZOMAC.xlsx
+++ b/Infraestructura/Municipios ZOMAC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1245,7 +1245,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,6 +1261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,7 +1303,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1319,6 +1325,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -4260,11 +4269,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4303,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5002</v>
       </c>
@@ -4308,7 +4318,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5004</v>
       </c>
@@ -4323,7 +4333,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5021</v>
       </c>
@@ -4338,7 +4348,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5031</v>
       </c>
@@ -4355,7 +4365,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5038</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5040</v>
       </c>
@@ -4387,14 +4397,14 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5045</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -4404,7 +4414,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5055</v>
       </c>
@@ -4419,7 +4429,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5107</v>
       </c>
@@ -4436,7 +4446,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
@@ -4453,7 +4463,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5125</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5134</v>
       </c>
@@ -4483,7 +4493,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5147</v>
       </c>
@@ -4500,7 +4510,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5154</v>
       </c>
@@ -4517,7 +4527,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5172</v>
       </c>
@@ -4534,7 +4544,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5197</v>
       </c>
@@ -4549,7 +4559,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5206</v>
       </c>
@@ -4564,7 +4574,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5234</v>
       </c>
@@ -4581,7 +4591,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5250</v>
       </c>
@@ -4598,7 +4608,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5284</v>
       </c>
@@ -4613,7 +4623,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5313</v>
       </c>
@@ -4628,7 +4638,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5315</v>
       </c>
@@ -4643,7 +4653,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5361</v>
       </c>
@@ -4660,7 +4670,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5467</v>
       </c>
@@ -4675,7 +4685,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5475</v>
       </c>
@@ -4692,7 +4702,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5480</v>
       </c>
@@ -4709,7 +4719,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5483</v>
       </c>
@@ -4724,7 +4734,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5495</v>
       </c>
@@ -4741,14 +4751,14 @@
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5490</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -4758,7 +4768,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5579</v>
       </c>
@@ -4773,7 +4783,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5604</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5642</v>
       </c>
@@ -4805,14 +4815,14 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5647</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="2"/>
@@ -4820,7 +4830,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5649</v>
       </c>
@@ -4835,7 +4845,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5652</v>
       </c>
@@ -4850,7 +4860,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>5660</v>
       </c>
@@ -4865,7 +4875,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5665</v>
       </c>
@@ -4882,7 +4892,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5667</v>
       </c>
@@ -4897,7 +4907,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5042</v>
       </c>
@@ -4912,7 +4922,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5690</v>
       </c>
@@ -4927,7 +4937,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5736</v>
       </c>
@@ -4944,7 +4954,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5756</v>
       </c>
@@ -4959,7 +4969,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>5790</v>
       </c>
@@ -4976,7 +4986,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>5819</v>
       </c>
@@ -4991,7 +5001,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>5837</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5842</v>
       </c>
@@ -5023,7 +5033,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>5847</v>
       </c>
@@ -5038,7 +5048,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>5854</v>
       </c>
@@ -5055,7 +5065,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>5858</v>
       </c>
@@ -5070,7 +5080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5873</v>
       </c>
@@ -5087,7 +5097,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>5885</v>
       </c>
@@ -5102,7 +5112,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5887</v>
       </c>
@@ -5117,7 +5127,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>5890</v>
       </c>
@@ -5132,7 +5142,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>5893</v>
       </c>
@@ -5149,7 +5159,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>5895</v>
       </c>
@@ -5166,7 +5176,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>81001</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>81065</v>
       </c>
@@ -5198,7 +5208,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>81220</v>
       </c>
@@ -5213,7 +5223,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>81300</v>
       </c>
@@ -5230,7 +5240,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>81591</v>
       </c>
@@ -5245,14 +5255,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>81736</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -5262,7 +5272,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>81794</v>
       </c>
@@ -5279,7 +5289,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>13042</v>
       </c>
@@ -5296,14 +5306,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>13160</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -5313,14 +5323,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>13212</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -5330,14 +5340,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>13244</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -5347,7 +5357,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>13248</v>
       </c>
@@ -5364,7 +5374,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>13442</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>13458</v>
       </c>
@@ -5396,14 +5406,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>13473</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -5413,14 +5423,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>13600</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="2"/>
@@ -5428,7 +5438,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>13654</v>
       </c>
@@ -5445,14 +5455,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>13657</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -5462,14 +5472,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>13670</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -5479,14 +5489,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>13688</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -5496,14 +5506,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>13744</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -5513,7 +5523,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>13810</v>
       </c>
@@ -5528,14 +5538,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>13894</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -5545,7 +5555,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>15236</v>
       </c>
@@ -5560,7 +5570,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>15377</v>
       </c>
@@ -5575,7 +5585,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>15518</v>
       </c>
@@ -5590,7 +5600,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>15533</v>
       </c>
@@ -5605,7 +5615,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>15550</v>
       </c>
@@ -5620,7 +5630,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>17042</v>
       </c>
@@ -5635,7 +5645,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>17088</v>
       </c>
@@ -5650,7 +5660,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>17446</v>
       </c>
@@ -5665,7 +5675,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>17495</v>
       </c>
@@ -5680,7 +5690,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>17524</v>
       </c>
@@ -5695,7 +5705,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>17541</v>
       </c>
@@ -5710,7 +5720,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>17614</v>
       </c>
@@ -5725,7 +5735,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>17616</v>
       </c>
@@ -5740,7 +5750,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>17662</v>
       </c>
@@ -5755,7 +5765,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>18029</v>
       </c>
@@ -5772,14 +5782,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>18094</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -5789,7 +5799,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>18150</v>
       </c>
@@ -5806,7 +5816,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>18205</v>
       </c>
@@ -5823,14 +5833,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>18247</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -5840,14 +5850,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>18256</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -5857,7 +5867,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>18001</v>
       </c>
@@ -5874,14 +5884,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>18410</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="13" t="s">
         <v>106</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -5891,7 +5901,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>18460</v>
       </c>
@@ -5908,7 +5918,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>18479</v>
       </c>
@@ -5925,7 +5935,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>18592</v>
       </c>
@@ -5942,7 +5952,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>18610</v>
       </c>
@@ -5959,7 +5969,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>18753</v>
       </c>
@@ -5976,7 +5986,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>18756</v>
       </c>
@@ -5993,7 +6003,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>18785</v>
       </c>
@@ -6010,7 +6020,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>18860</v>
       </c>
@@ -6027,7 +6037,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>85010</v>
       </c>
@@ -6042,7 +6052,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>85015</v>
       </c>
@@ -6057,7 +6067,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>85125</v>
       </c>
@@ -6072,7 +6082,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>85136</v>
       </c>
@@ -6087,7 +6097,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>85139</v>
       </c>
@@ -6102,7 +6112,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>85162</v>
       </c>
@@ -6117,7 +6127,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>85250</v>
       </c>
@@ -6132,7 +6142,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>85263</v>
       </c>
@@ -6147,7 +6157,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>85279</v>
       </c>
@@ -6162,7 +6172,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>85300</v>
       </c>
@@ -6177,7 +6187,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>85315</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>85400</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>85410</v>
       </c>
@@ -6222,7 +6232,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>85440</v>
       </c>
@@ -6237,7 +6247,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>19050</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>19075</v>
       </c>
@@ -6271,7 +6281,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>19110</v>
       </c>
@@ -6288,7 +6298,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>19130</v>
       </c>
@@ -6305,7 +6315,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>19137</v>
       </c>
@@ -6322,7 +6332,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>19142</v>
       </c>
@@ -6339,7 +6349,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>19212</v>
       </c>
@@ -6356,7 +6366,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>19256</v>
       </c>
@@ -6373,7 +6383,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>19290</v>
       </c>
@@ -6388,7 +6398,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>19318</v>
       </c>
@@ -6405,7 +6415,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>19364</v>
       </c>
@@ -6422,7 +6432,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>19418</v>
       </c>
@@ -6439,7 +6449,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>19450</v>
       </c>
@@ -6456,7 +6466,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>19455</v>
       </c>
@@ -6473,7 +6483,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>19473</v>
       </c>
@@ -6490,7 +6500,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>19532</v>
       </c>
@@ -6507,7 +6517,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>19533</v>
       </c>
@@ -6522,7 +6532,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>19548</v>
       </c>
@@ -6539,7 +6549,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>19701</v>
       </c>
@@ -6554,7 +6564,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>19698</v>
       </c>
@@ -6571,7 +6581,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>19780</v>
       </c>
@@ -6588,7 +6598,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>19809</v>
       </c>
@@ -6605,7 +6615,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>19821</v>
       </c>
@@ -6622,7 +6632,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>20011</v>
       </c>
@@ -6637,7 +6647,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>20013</v>
       </c>
@@ -6654,7 +6664,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>20045</v>
       </c>
@@ -6671,7 +6681,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>20060</v>
       </c>
@@ -6686,7 +6696,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>20178</v>
       </c>
@@ -6701,7 +6711,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>20228</v>
       </c>
@@ -6716,7 +6726,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>20238</v>
       </c>
@@ -6731,7 +6741,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>20383</v>
       </c>
@@ -6746,7 +6756,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>20400</v>
       </c>
@@ -6763,7 +6773,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>20621</v>
       </c>
@@ -6780,7 +6790,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>20443</v>
       </c>
@@ -6797,7 +6807,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>20517</v>
       </c>
@@ -6812,7 +6822,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>20550</v>
       </c>
@@ -6827,7 +6837,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>20570</v>
       </c>
@@ -6844,7 +6854,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>20750</v>
       </c>
@@ -6861,7 +6871,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>27006</v>
       </c>
@@ -6878,7 +6888,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>27073</v>
       </c>
@@ -6893,7 +6903,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>27077</v>
       </c>
@@ -6908,7 +6918,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>27099</v>
       </c>
@@ -6925,7 +6935,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>27150</v>
       </c>
@@ -6942,7 +6952,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>27205</v>
       </c>
@@ -6959,7 +6969,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>27245</v>
       </c>
@@ -6974,7 +6984,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>27250</v>
       </c>
@@ -6991,7 +7001,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>27361</v>
       </c>
@@ -7008,7 +7018,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>27425</v>
       </c>
@@ -7025,7 +7035,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>27450</v>
       </c>
@@ -7042,7 +7052,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>27491</v>
       </c>
@@ -7059,14 +7069,14 @@
         <v>378</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>27001</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="13" t="s">
         <v>180</v>
       </c>
       <c r="D174" s="2"/>
@@ -7074,7 +7084,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>27615</v>
       </c>
@@ -7091,7 +7101,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>27660</v>
       </c>
@@ -7106,7 +7116,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>27745</v>
       </c>
@@ -7123,7 +7133,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>27787</v>
       </c>
@@ -7138,7 +7148,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>27800</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>23466</v>
       </c>
@@ -7172,14 +7182,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>23580</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -7189,7 +7199,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>23682</v>
       </c>
@@ -7206,14 +7216,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>23807</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="13" t="s">
         <v>188</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -7223,14 +7233,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>23855</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="13" t="s">
         <v>189</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -7240,7 +7250,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>25120</v>
       </c>
@@ -7255,7 +7265,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>25168</v>
       </c>
@@ -7270,7 +7280,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>25258</v>
       </c>
@@ -7285,7 +7295,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>25328</v>
       </c>
@@ -7300,7 +7310,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>25335</v>
       </c>
@@ -7315,7 +7325,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>25394</v>
       </c>
@@ -7330,7 +7340,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>25438</v>
       </c>
@@ -7345,7 +7355,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>25530</v>
       </c>
@@ -7360,7 +7370,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>25580</v>
       </c>
@@ -7375,7 +7385,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>25743</v>
       </c>
@@ -7390,7 +7400,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>25823</v>
       </c>
@@ -7405,7 +7415,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>25878</v>
       </c>
@@ -7420,7 +7430,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>95015</v>
       </c>
@@ -7437,7 +7447,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>95025</v>
       </c>
@@ -7454,7 +7464,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>95200</v>
       </c>
@@ -7471,7 +7481,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>95001</v>
       </c>
@@ -7488,7 +7498,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>41006</v>
       </c>
@@ -7503,7 +7513,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>41020</v>
       </c>
@@ -7520,7 +7530,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>41078</v>
       </c>
@@ -7535,7 +7545,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>41206</v>
       </c>
@@ -7550,7 +7560,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>41349</v>
       </c>
@@ -7565,7 +7575,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>41359</v>
       </c>
@@ -7580,7 +7590,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>41799</v>
       </c>
@@ -7595,7 +7605,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44090</v>
       </c>
@@ -7612,7 +7622,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44110</v>
       </c>
@@ -7627,7 +7637,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44279</v>
       </c>
@@ -7644,7 +7654,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44420</v>
       </c>
@@ -7659,7 +7669,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44430</v>
       </c>
@@ -7674,7 +7684,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44001</v>
       </c>
@@ -7689,7 +7699,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44650</v>
       </c>
@@ -7706,7 +7716,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44855</v>
       </c>
@@ -7721,7 +7731,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44874</v>
       </c>
@@ -7736,7 +7746,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>47053</v>
       </c>
@@ -7753,7 +7763,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>47288</v>
       </c>
@@ -7770,7 +7780,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>50110</v>
       </c>
@@ -7785,7 +7795,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>50223</v>
       </c>
@@ -7800,7 +7810,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>50245</v>
       </c>
@@ -7815,7 +7825,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>50251</v>
       </c>
@@ -7830,7 +7840,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>50270</v>
       </c>
@@ -7845,7 +7855,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>50287</v>
       </c>
@@ -7860,7 +7870,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>50313</v>
       </c>
@@ -7875,7 +7885,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>50350</v>
       </c>
@@ -7892,7 +7902,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>50400</v>
       </c>
@@ -7907,7 +7917,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>50325</v>
       </c>
@@ -7924,7 +7934,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>50330</v>
       </c>
@@ -7941,7 +7951,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>50450</v>
       </c>
@@ -7958,7 +7968,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>50568</v>
       </c>
@@ -7973,7 +7983,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>50577</v>
       </c>
@@ -7990,7 +8000,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>50590</v>
       </c>
@@ -8007,7 +8017,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>50683</v>
       </c>
@@ -8022,7 +8032,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>50686</v>
       </c>
@@ -8037,7 +8047,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>50689</v>
       </c>
@@ -8052,7 +8062,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>50370</v>
       </c>
@@ -8069,7 +8079,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>50711</v>
       </c>
@@ -8086,7 +8096,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>52079</v>
       </c>
@@ -8103,7 +8113,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>52233</v>
       </c>
@@ -8120,7 +8130,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>52250</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>52254</v>
       </c>
@@ -8152,7 +8162,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>52256</v>
       </c>
@@ -8169,7 +8179,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>52520</v>
       </c>
@@ -8186,7 +8196,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>52356</v>
       </c>
@@ -8201,7 +8211,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>52385</v>
       </c>
@@ -8216,7 +8226,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>52390</v>
       </c>
@@ -8233,7 +8243,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>52405</v>
       </c>
@@ -8250,7 +8260,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>52411</v>
       </c>
@@ -8265,7 +8275,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>52418</v>
       </c>
@@ -8282,7 +8292,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>52427</v>
       </c>
@@ -8299,7 +8309,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>52435</v>
       </c>
@@ -8314,7 +8324,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>52473</v>
       </c>
@@ -8331,7 +8341,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>52490</v>
       </c>
@@ -8348,14 +8358,14 @@
         <v>378</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>52540</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="13" t="s">
         <v>263</v>
       </c>
       <c r="D255" s="2" t="s">
@@ -8365,7 +8375,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>52573</v>
       </c>
@@ -8380,7 +8390,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>52612</v>
       </c>
@@ -8397,7 +8407,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>52621</v>
       </c>
@@ -8414,7 +8424,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>52678</v>
       </c>
@@ -8429,7 +8439,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>52835</v>
       </c>
@@ -8446,7 +8456,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>52696</v>
       </c>
@@ -8463,7 +8473,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>54109</v>
       </c>
@@ -8478,7 +8488,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>54206</v>
       </c>
@@ -8495,7 +8505,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>54245</v>
       </c>
@@ -8512,7 +8522,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>54250</v>
       </c>
@@ -8529,14 +8539,14 @@
         <v>374</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>54261</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="13" t="s">
         <v>275</v>
       </c>
       <c r="D266" s="2"/>
@@ -8544,7 +8554,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>54344</v>
       </c>
@@ -8561,7 +8571,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>54398</v>
       </c>
@@ -8576,7 +8586,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>54670</v>
       </c>
@@ -8593,7 +8603,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>54680</v>
       </c>
@@ -8608,7 +8618,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>54720</v>
       </c>
@@ -8625,14 +8635,14 @@
         <v>374</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>54800</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="13" t="s">
         <v>281</v>
       </c>
       <c r="D272" s="2" t="s">
@@ -8642,7 +8652,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>54810</v>
       </c>
@@ -8659,14 +8669,14 @@
         <v>374</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>86001</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="13" t="s">
         <v>284</v>
       </c>
       <c r="D274" s="2" t="s">
@@ -8676,14 +8686,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>86320</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="13" t="s">
         <v>285</v>
       </c>
       <c r="D275" s="2" t="s">
@@ -8693,14 +8703,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>86568</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="13" t="s">
         <v>286</v>
       </c>
       <c r="D276" s="2" t="s">
@@ -8710,7 +8720,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>86569</v>
       </c>
@@ -8727,7 +8737,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>86571</v>
       </c>
@@ -8744,7 +8754,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>86573</v>
       </c>
@@ -8761,7 +8771,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>86757</v>
       </c>
@@ -8778,7 +8788,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>86865</v>
       </c>
@@ -8795,7 +8805,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>86885</v>
       </c>
@@ -8812,7 +8822,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>63302</v>
       </c>
@@ -8827,7 +8837,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>63548</v>
       </c>
@@ -8842,7 +8852,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>63690</v>
       </c>
@@ -8857,7 +8867,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>66075</v>
       </c>
@@ -8872,7 +8882,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>66456</v>
       </c>
@@ -8887,7 +8897,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>66572</v>
       </c>
@@ -8902,7 +8912,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>66594</v>
       </c>
@@ -8917,7 +8927,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>68101</v>
       </c>
@@ -8932,7 +8942,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>68169</v>
       </c>
@@ -8947,7 +8957,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>68255</v>
       </c>
@@ -8962,7 +8972,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>68377</v>
       </c>
@@ -8977,7 +8987,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>68385</v>
       </c>
@@ -8992,7 +9002,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>68444</v>
       </c>
@@ -9007,7 +9017,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>68615</v>
       </c>
@@ -9022,7 +9032,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>68655</v>
       </c>
@@ -9037,7 +9047,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>68773</v>
       </c>
@@ -9052,7 +9062,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>68780</v>
       </c>
@@ -9067,7 +9077,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>70230</v>
       </c>
@@ -9084,7 +9094,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>70204</v>
       </c>
@@ -9101,7 +9111,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>70418</v>
       </c>
@@ -9118,7 +9128,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>70473</v>
       </c>
@@ -9135,7 +9145,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>70508</v>
       </c>
@@ -9152,7 +9162,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>70523</v>
       </c>
@@ -9169,7 +9179,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>70713</v>
       </c>
@@ -9186,7 +9196,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>70823</v>
       </c>
@@ -9203,7 +9213,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>73026</v>
       </c>
@@ -9218,7 +9228,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>73043</v>
       </c>
@@ -9233,7 +9243,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>73067</v>
       </c>
@@ -9250,7 +9260,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>73124</v>
       </c>
@@ -9265,7 +9275,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>73152</v>
       </c>
@@ -9280,7 +9290,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>73168</v>
       </c>
@@ -9297,7 +9307,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>73236</v>
       </c>
@@ -9312,7 +9322,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>73347</v>
       </c>
@@ -9327,7 +9337,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>73408</v>
       </c>
@@ -9342,7 +9352,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>73461</v>
       </c>
@@ -9357,7 +9367,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>73504</v>
       </c>
@@ -9372,7 +9382,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>73555</v>
       </c>
@@ -9389,7 +9399,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>73563</v>
       </c>
@@ -9404,7 +9414,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>73616</v>
       </c>
@@ -9421,7 +9431,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>73622</v>
       </c>
@@ -9436,7 +9446,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>73624</v>
       </c>
@@ -9451,7 +9461,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>73675</v>
       </c>
@@ -9466,7 +9476,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>73686</v>
       </c>
@@ -9481,7 +9491,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>73861</v>
       </c>
@@ -9496,7 +9506,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>73870</v>
       </c>
@@ -9511,7 +9521,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>73873</v>
       </c>
@@ -9749,7 +9759,7 @@
       <c r="B343" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="C343" s="13" t="s">
         <v>353</v>
       </c>
       <c r="D343" s="2"/>
@@ -9757,7 +9767,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>97161</v>
       </c>
@@ -9772,7 +9782,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>99773</v>
       </c>
@@ -9788,7 +9798,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E345"/>
+  <autoFilter ref="B1:E345">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="VALLE DEL CAUCA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
